--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BC/20/seed4/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.35599999999999</v>
+        <v>-12.44299999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -558,10 +558,10 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.663299999999997</v>
+        <v>5.418699999999996</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.1205</v>
+        <v>-10.82249999999999</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.72539999999999</v>
+        <v>-12.6218</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -614,7 +614,7 @@
         <v>-22.15</v>
       </c>
       <c r="B13" t="n">
-        <v>6.500899999999996</v>
+        <v>6.713599999999996</v>
       </c>
       <c r="C13" t="n">
         <v>-15.83</v>
@@ -656,10 +656,10 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>5.149299999999996</v>
+        <v>4.925199999999996</v>
       </c>
       <c r="C16" t="n">
-        <v>-13.41929999999999</v>
+        <v>-13.5826</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.297099999999997</v>
+        <v>6.494299999999998</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -712,7 +712,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.907399999999997</v>
+        <v>8.856299999999994</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.2043</v>
+        <v>-12.2571</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.09049999999999</v>
+        <v>-12.8202</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -796,10 +796,10 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.677600000000004</v>
+        <v>4.944300000000004</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.87590000000001</v>
+        <v>-13.10710000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.251000000000004</v>
+        <v>6.231400000000004</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.305</v>
+        <v>5.343299999999999</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-12.09820000000001</v>
+        <v>-11.89320000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -922,10 +922,10 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.746499999999999</v>
+        <v>8.669299999999994</v>
       </c>
       <c r="C35" t="n">
-        <v>-13.22750000000001</v>
+        <v>-13.30580000000001</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.290800000000011</v>
+        <v>9.35150000000001</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1051,7 +1051,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.9085</v>
+        <v>-13.1925</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1062,7 +1062,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>4.784500000000005</v>
+        <v>4.737500000000004</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.51969999999999</v>
+        <v>-11.34609999999999</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-13.41079999999999</v>
+        <v>-13.6017</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.0503</v>
+        <v>-10.9172</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.900199999999992</v>
+        <v>7.007699999999994</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1230,7 +1230,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.360299999999994</v>
+        <v>4.979599999999994</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1359,7 +1359,7 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.0418</v>
+        <v>-11.2329</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.85859999999999</v>
+        <v>-10.87719999999999</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.210099999999995</v>
+        <v>5.424699999999993</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.18500000000001</v>
+        <v>-11.18040000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.309199999999999</v>
+        <v>4.921499999999998</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1524,10 +1524,10 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.753499999999995</v>
+        <v>9.565599999999996</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.22790000000001</v>
+        <v>-12.26670000000001</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-11.62860000000001</v>
+        <v>-11.65640000000001</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1580,7 +1580,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.415299999999999</v>
+        <v>5.2512</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.729</v>
+        <v>5.1726</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1709,7 +1709,7 @@
         <v>7.49</v>
       </c>
       <c r="C91" t="n">
-        <v>-12.89810000000001</v>
+        <v>-12.925</v>
       </c>
       <c r="D91" t="n">
         <v>-8.890000000000001</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.3161</v>
+        <v>5.353400000000001</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1790,10 +1790,10 @@
         <v>-21.33</v>
       </c>
       <c r="B97" t="n">
-        <v>5.857699999999995</v>
+        <v>5.511799999999997</v>
       </c>
       <c r="C97" t="n">
-        <v>-10.9014</v>
+        <v>-11.1068</v>
       </c>
       <c r="D97" t="n">
         <v>-6.44</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.5543</v>
+        <v>-12.8511</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1891,7 +1891,7 @@
         <v>7.61</v>
       </c>
       <c r="C104" t="n">
-        <v>-12.9274</v>
+        <v>-12.70200000000002</v>
       </c>
       <c r="D104" t="n">
         <v>-7.34</v>
